--- a/business/stat/Jibres-Stat.xlsx
+++ b/business/stat/Jibres-Stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09857C4E-4C75-4175-B7DF-15AD02DC9A08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D734B87-B7C3-45BD-9CC1-188A2552A46D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -179,8 +179,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -189,64 +189,25 @@
   </cellStyles>
   <dxfs count="36">
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -285,25 +246,64 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1591,49 +1591,49 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>17 Q4</c:v>
+                  <c:v>2017 Q4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18 Q1</c:v>
+                  <c:v>2018 Q1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18 Q2</c:v>
+                  <c:v>2018 Q2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18 Q3</c:v>
+                  <c:v>2018 Q3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18 Q4</c:v>
+                  <c:v>2018 Q4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19 Q1</c:v>
+                  <c:v>2019 Q1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19 Q2</c:v>
+                  <c:v>2019 Q2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19 Q3</c:v>
+                  <c:v>2019 Q3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19 Q4</c:v>
+                  <c:v>2019 Q4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20 Q1</c:v>
+                  <c:v>2020 Q1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20 Q2</c:v>
+                  <c:v>2020 Q2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20 Q3</c:v>
+                  <c:v>2020 Q3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20 Q4</c:v>
+                  <c:v>2020 Q4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21 Q1</c:v>
+                  <c:v>2021 Q1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21 Q2</c:v>
+                  <c:v>2021 Q2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1976,49 +1976,49 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>17 Q4</c:v>
+                  <c:v>2017 Q4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18 Q1</c:v>
+                  <c:v>2018 Q1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18 Q2</c:v>
+                  <c:v>2018 Q2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18 Q3</c:v>
+                  <c:v>2018 Q3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18 Q4</c:v>
+                  <c:v>2018 Q4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19 Q1</c:v>
+                  <c:v>2019 Q1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19 Q2</c:v>
+                  <c:v>2019 Q2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19 Q3</c:v>
+                  <c:v>2019 Q3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19 Q4</c:v>
+                  <c:v>2019 Q4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20 Q1</c:v>
+                  <c:v>2020 Q1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20 Q2</c:v>
+                  <c:v>2020 Q2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20 Q3</c:v>
+                  <c:v>2020 Q3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20 Q4</c:v>
+                  <c:v>2020 Q4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21 Q1</c:v>
+                  <c:v>2021 Q1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21 Q2</c:v>
+                  <c:v>2021 Q2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2361,49 +2361,49 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>17 Q4</c:v>
+                  <c:v>2017 Q4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18 Q1</c:v>
+                  <c:v>2018 Q1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18 Q2</c:v>
+                  <c:v>2018 Q2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18 Q3</c:v>
+                  <c:v>2018 Q3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18 Q4</c:v>
+                  <c:v>2018 Q4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19 Q1</c:v>
+                  <c:v>2019 Q1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19 Q2</c:v>
+                  <c:v>2019 Q2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19 Q3</c:v>
+                  <c:v>2019 Q3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19 Q4</c:v>
+                  <c:v>2019 Q4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20 Q1</c:v>
+                  <c:v>2020 Q1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20 Q2</c:v>
+                  <c:v>2020 Q2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20 Q3</c:v>
+                  <c:v>2020 Q3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20 Q4</c:v>
+                  <c:v>2020 Q4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21 Q1</c:v>
+                  <c:v>2021 Q1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21 Q2</c:v>
+                  <c:v>2021 Q2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4051,43 +4051,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>18 Q1</c:v>
+                  <c:v>2018 Q1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18 Q2</c:v>
+                  <c:v>2018 Q2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18 Q3</c:v>
+                  <c:v>2018 Q3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18 Q4</c:v>
+                  <c:v>2018 Q4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19 Q1</c:v>
+                  <c:v>2019 Q1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19 Q2</c:v>
+                  <c:v>2019 Q2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19 Q3</c:v>
+                  <c:v>2019 Q3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19 Q4</c:v>
+                  <c:v>2019 Q4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20 Q1</c:v>
+                  <c:v>2020 Q1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20 Q2</c:v>
+                  <c:v>2020 Q2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20 Q3</c:v>
+                  <c:v>2020 Q3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20 Q4</c:v>
+                  <c:v>2020 Q4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21 Q1</c:v>
+                  <c:v>2021 Q1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10783,34 +10783,34 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3AEDF3E8-DCDF-4458-8CEB-82817AB64072}" name="Year" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{5CC5A32E-8D8D-4620-AA68-67CA198A6D22}" name="Quarter"/>
-    <tableColumn id="12" xr3:uid="{E6D4C389-7217-4BEA-8474-AA9545BFC91F}" name="Title" dataDxfId="22">
-      <calculatedColumnFormula>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{E6D4C389-7217-4BEA-8474-AA9545BFC91F}" name="Title" dataDxfId="0">
+      <calculatedColumnFormula>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FE8EAC06-9343-43A5-9933-DA06B55C4834}" name="Criteria 1" dataDxfId="30" totalsRowDxfId="21">
+    <tableColumn id="10" xr3:uid="{FE8EAC06-9343-43A5-9933-DA06B55C4834}" name="Criteria 1" dataDxfId="30" totalsRowDxfId="8">
       <calculatedColumnFormula>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C2D61A1B-5F2E-47AB-A2F5-843F0E6D5F88}" name="Criteria 2" dataDxfId="29" totalsRowDxfId="20">
+    <tableColumn id="11" xr3:uid="{C2D61A1B-5F2E-47AB-A2F5-843F0E6D5F88}" name="Criteria 2" dataDxfId="29" totalsRowDxfId="7">
       <calculatedColumnFormula>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5949D5F2-4B5A-43E1-BE5E-5034FCD8DA25}" name="New Business" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="19" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{5949D5F2-4B5A-43E1-BE5E-5034FCD8DA25}" name="New Business" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="6" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[New Business],tbl_data[Year],tbl_summary[[#This Row],[Year]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 1]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F29BC25B-6310-4D3C-ACDA-A802AA2EBA01}" name="New Product" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="18" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{F29BC25B-6310-4D3C-ACDA-A802AA2EBA01}" name="New Product" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="5" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[New Product],tbl_data[Year],tbl_summary[[#This Row],[Year]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 1]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FF6A2A54-ECC5-4CC5-9EC1-DAFC86F27E1F}" name="New Factor" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="17" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{FF6A2A54-ECC5-4CC5-9EC1-DAFC86F27E1F}" name="New Factor" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[New Factor],tbl_data[Year],tbl_summary[[#This Row],[Year]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 1]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E99716DE-17A8-4B4F-B157-45F22E35D131}" name="Filtered Factor" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="16" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{E99716DE-17A8-4B4F-B157-45F22E35D131}" name="Filtered Factor" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[Filtered Factor],tbl_data[Year],tbl_summary[[#This Row],[Year]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 1]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{15212531-9C7E-4483-B14C-2B5A668B2CB0}" name="GMV" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="15" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{15212531-9C7E-4483-B14C-2B5A668B2CB0}" name="GMV" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[GMV],tbl_data[Year],tbl_summary[[#This Row],[Year]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 1]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C97EE61E-0CBC-455B-92CF-74B2D05CC38B}" name="GMV Filtered" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="14" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{C97EE61E-0CBC-455B-92CF-74B2D05CC38B}" name="GMV Filtered" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[GMV Filtered],tbl_data[Year],tbl_summary[[#This Row],[Year]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 1]],tbl_data[Month],tbl_summary[[#This Row],[Criteria 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{62E6CAA1-C202-49B5-9950-CA18C4E578FA}" name="Increase %" dataDxfId="13" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{62E6CAA1-C202-49B5-9950-CA18C4E578FA}" name="Increase %" dataDxfId="22" dataCellStyle="Comma">
       <calculatedColumnFormula>IFERROR((tbl_summary[[#This Row],[GMV Filtered]]*100/K1) - 100,"-")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10835,25 +10835,25 @@
   <autoFilter ref="A1:H6" xr:uid="{538EC323-8ED8-4CE3-B8D4-0A190AEDB6FB}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C9720499-2365-4C1F-9FFC-0A99316840AF}" name="Year" totalsRowLabel="Total"/>
-    <tableColumn id="9" xr3:uid="{8BE58B90-4732-4E86-A539-7F89CE04CAEC}" name="New Business" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{8BE58B90-4732-4E86-A539-7F89CE04CAEC}" name="New Business" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[New Business],tbl_data[Year],tbl_summary6[[#This Row],[Year]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B562534D-E54B-4F8B-B8C5-0DE64EFA4251}" name="New Product" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="4" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{B562534D-E54B-4F8B-B8C5-0DE64EFA4251}" name="New Product" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[New Product],tbl_data[Year],tbl_summary6[[#This Row],[Year]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2372AFFB-F735-4AE8-9EFD-EDB9687A1E5A}" name="New Factor" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{2372AFFB-F735-4AE8-9EFD-EDB9687A1E5A}" name="New Factor" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[New Factor],tbl_data[Year],tbl_summary6[[#This Row],[Year]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3D2214AE-0E19-4268-87BC-91C8DCD060E0}" name="Filtered Factor" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{3D2214AE-0E19-4268-87BC-91C8DCD060E0}" name="Filtered Factor" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[Filtered Factor],tbl_data[Year],tbl_summary6[[#This Row],[Year]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{AC97987F-F5FA-4728-A97D-72C2AA8478F9}" name="GMV" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{AC97987F-F5FA-4728-A97D-72C2AA8478F9}" name="GMV" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[GMV],tbl_data[Year],tbl_summary6[[#This Row],[Year]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8E24CA94-C4BA-4A47-BF8A-5CBC539EFE0B}" name="GMV Filtered" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{8E24CA94-C4BA-4A47-BF8A-5CBC539EFE0B}" name="GMV Filtered" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Comma">
       <calculatedColumnFormula>SUMIFS(tbl_data[GMV Filtered],tbl_data[Year],tbl_summary6[[#This Row],[Year]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A6DDA24E-FCF6-4C78-B9EA-1B4407C22C51}" name="Increase %" dataDxfId="12" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{A6DDA24E-FCF6-4C78-B9EA-1B4407C22C51}" name="Increase %" dataDxfId="9" dataCellStyle="Comma">
       <calculatedColumnFormula>IFERROR((tbl_summary6[[#This Row],[GMV Filtered]]*100/G1) - 100,"-")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12398,8 +12398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0280D5D-B024-455D-AD52-AA1D1021FB9B}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12475,8 +12475,8 @@
         <v>11</v>
       </c>
       <c r="C2" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>17 Q4</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2017 Q4</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -12532,8 +12532,8 @@
         <v>12</v>
       </c>
       <c r="C3" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>18 Q1</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2018 Q1</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -12589,8 +12589,8 @@
         <v>14</v>
       </c>
       <c r="C4" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>18 Q2</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2018 Q2</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -12646,8 +12646,8 @@
         <v>15</v>
       </c>
       <c r="C5" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>18 Q3</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2018 Q3</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -12703,8 +12703,8 @@
         <v>11</v>
       </c>
       <c r="C6" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>18 Q4</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2018 Q4</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -12751,8 +12751,8 @@
         <v>12</v>
       </c>
       <c r="C7" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>19 Q1</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2019 Q1</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -12799,8 +12799,8 @@
         <v>14</v>
       </c>
       <c r="C8" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>19 Q2</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2019 Q2</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -12848,8 +12848,8 @@
         <v>15</v>
       </c>
       <c r="C9" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>19 Q3</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2019 Q3</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -12896,8 +12896,8 @@
         <v>11</v>
       </c>
       <c r="C10" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>19 Q4</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2019 Q4</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -12944,8 +12944,8 @@
         <v>12</v>
       </c>
       <c r="C11" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>20 Q1</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2020 Q1</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -12992,8 +12992,8 @@
         <v>14</v>
       </c>
       <c r="C12" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>20 Q2</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2020 Q2</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -13040,8 +13040,8 @@
         <v>15</v>
       </c>
       <c r="C13" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>20 Q3</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2020 Q3</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -13088,8 +13088,8 @@
         <v>11</v>
       </c>
       <c r="C14" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>20 Q4</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2020 Q4</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -13136,8 +13136,8 @@
         <v>12</v>
       </c>
       <c r="C15" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>21 Q1</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2021 Q1</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -13184,8 +13184,8 @@
         <v>14</v>
       </c>
       <c r="C16" t="str">
-        <f>RIGHT(tbl_summary[[#This Row],[Year]],2) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
-        <v>21 Q2</v>
+        <f>RIGHT(tbl_summary[[#This Row],[Year]],4) &amp; " " &amp; tbl_summary[[#This Row],[Quarter]]</f>
+        <v>2021 Q2</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>VLOOKUP(tbl_summary[[#This Row],[Quarter]],tbl_Criteria[],2,FALSE)</f>
@@ -13270,7 +13270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CDA5BF-A6F7-47AF-A98C-A286EADD88FE}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
